--- a/RapZapSnap/Assets/Chew/script/Excel Related/NotesData2.xlsx
+++ b/RapZapSnap/Assets/Chew/script/Excel Related/NotesData2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="36" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-60" yWindow="-45" windowWidth="12630" windowHeight="5445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Phrase1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
   <si>
     <t>delaytime</t>
     <phoneticPr fontId="1"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>UpArrow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CircleKey</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -429,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H3" sqref="B2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="7.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -471,25 +475,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="C2">
         <v>0.75</v>
       </c>
       <c r="D2">
-        <v>-8.5</v>
+        <v>8.5</v>
       </c>
       <c r="E2">
         <v>0.75</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -497,25 +501,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.65</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>6.65</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.75</v>
+        <v>-3.75</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -526,22 +530,22 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>-8.6999999999999993</v>
+        <v>-8.5</v>
       </c>
       <c r="E4">
-        <v>4.2</v>
+        <v>0.75</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -549,16 +553,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>6.65</v>
       </c>
       <c r="C5">
         <v>-7</v>
       </c>
       <c r="D5">
-        <v>1.05</v>
+        <v>6.65</v>
       </c>
       <c r="E5">
-        <v>4.2</v>
+        <v>0.75</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -567,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -575,13 +579,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>4.2</v>
       </c>
       <c r="D6">
-        <v>3.2</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="E6">
         <v>4.2</v>
@@ -593,13 +597,25 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>-7</v>
+      </c>
+      <c r="D7">
+        <v>1.05</v>
+      </c>
+      <c r="E7">
+        <v>4.2</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
@@ -607,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -615,16 +631,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="C8">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="D8">
-        <v>-8.5</v>
+        <v>3.2</v>
       </c>
       <c r="E8">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -633,33 +649,21 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C9">
-        <v>-7</v>
-      </c>
-      <c r="D9">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E9">
-        <v>2.4</v>
-      </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -670,13 +674,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>-0.6</v>
+        <v>2.4</v>
       </c>
       <c r="D10">
-        <v>-8.65</v>
+        <v>-8.5</v>
       </c>
       <c r="E10">
-        <v>-0.6</v>
+        <v>2.4</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -685,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -693,16 +697,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-11</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C11">
-        <v>-0.6</v>
+        <v>-7</v>
       </c>
       <c r="D11">
-        <v>1.95</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E11">
-        <v>-0.6</v>
+        <v>2.4</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -711,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -722,13 +726,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-2</v>
+        <v>-0.6</v>
       </c>
       <c r="D12">
-        <v>-8.6</v>
+        <v>-8.65</v>
       </c>
       <c r="E12">
-        <v>-2</v>
+        <v>-0.6</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -745,16 +749,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.95</v>
+        <v>-11</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>-0.6</v>
       </c>
       <c r="D13">
         <v>1.95</v>
       </c>
       <c r="E13">
-        <v>-2</v>
+        <v>-0.6</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -763,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -774,13 +778,13 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>-3.65</v>
+        <v>-2</v>
       </c>
       <c r="D14">
-        <v>-8.35</v>
+        <v>-8.6</v>
       </c>
       <c r="E14">
-        <v>-3.65</v>
+        <v>-2</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -789,13 +793,25 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>1.95</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>1.95</v>
+      </c>
+      <c r="E15">
+        <v>-2</v>
+      </c>
       <c r="F15">
         <v>2</v>
       </c>
@@ -803,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -811,16 +827,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>-0.8</v>
+        <v>-3.65</v>
       </c>
       <c r="D16">
-        <v>4.3</v>
+        <v>-8.35</v>
       </c>
       <c r="E16">
-        <v>-0.8</v>
+        <v>-3.65</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -836,32 +852,72 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-11</v>
+      </c>
+      <c r="C18">
+        <v>-0.8</v>
+      </c>
+      <c r="D18">
+        <v>4.3</v>
+      </c>
+      <c r="E18">
+        <v>-0.8</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>7.35</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>7</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>7.35</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>-2</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H19">
       <formula1>"CircleKey,CrossKey,TriangleKey,UpArrow,DownArrow,LeftArrow"</formula1>
     </dataValidation>
   </dataValidations>
@@ -872,15 +928,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="7.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -914,25 +970,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>-8.35</v>
+        <v>8.5</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -940,25 +996,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>-2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>-3.75</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -966,25 +1022,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.05</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>4.05</v>
+        <v>-8.35</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -992,13 +1048,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-11</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="D5">
-        <v>7.95</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1010,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1018,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-11</v>
+        <v>4.05</v>
       </c>
       <c r="C6">
-        <v>2.7</v>
+        <v>-7</v>
       </c>
       <c r="D6">
-        <v>6.7</v>
+        <v>4.05</v>
       </c>
       <c r="E6">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1036,13 +1092,25 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>-11</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>7.95</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
@@ -1050,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1064,7 +1132,7 @@
         <v>2.7</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="E8">
         <v>2.7</v>
@@ -1076,33 +1144,21 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>-11</v>
-      </c>
-      <c r="C9">
-        <v>2.1</v>
-      </c>
-      <c r="D9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E9">
-        <v>2.1</v>
-      </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1110,16 +1166,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="C10">
-        <v>2.4500000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="D10">
-        <v>-8.5</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>2.4500000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1128,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1139,13 +1195,13 @@
         <v>-11</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="D11">
-        <v>-1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1154,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1165,13 +1221,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D12">
-        <v>-8.35</v>
+        <v>-8.5</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1188,16 +1244,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="C13">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-4.9000000000000004</v>
+        <v>-1.6</v>
       </c>
       <c r="E13">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1206,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1217,13 +1273,13 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>-2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>-8.4</v>
+        <v>-8.35</v>
       </c>
       <c r="E14">
-        <v>-2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1232,13 +1288,25 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>-0.5</v>
+      </c>
+      <c r="D15">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="E15">
+        <v>-0.5</v>
+      </c>
       <c r="F15">
         <v>2</v>
       </c>
@@ -1246,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1257,13 +1325,13 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>-2.4</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="D16">
-        <v>-2</v>
+        <v>-8.4</v>
       </c>
       <c r="E16">
-        <v>-2.4</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1279,32 +1347,66 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>-2.4</v>
+      </c>
+      <c r="D18">
+        <v>-2</v>
+      </c>
+      <c r="E18">
+        <v>-2.4</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19">
         <v>-11</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>-2.7</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>5.15</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>-2.7</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H19">
       <formula1>"CircleKey,CrossKey,TriangleKey,UpArrow,DownArrow,LeftArrow"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1314,13 +1416,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
@@ -1356,25 +1458,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="C2">
-        <v>4.2</v>
+        <v>-2.75</v>
       </c>
       <c r="D2">
-        <v>-8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E2">
         <v>4.2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1382,25 +1484,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="C3">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>0.7</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="E3">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1408,25 +1510,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.3</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>-7</v>
+        <v>4.2</v>
       </c>
       <c r="D4">
-        <v>5.3</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="E4">
         <v>4.2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1434,13 +1536,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8.1</v>
+        <v>0.7</v>
       </c>
       <c r="C5">
         <v>-7</v>
       </c>
       <c r="D5">
-        <v>8.1</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
         <v>4.2</v>
@@ -1452,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1460,16 +1562,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-6.9</v>
+        <v>5.3</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="D6">
-        <v>-6.9</v>
+        <v>5.3</v>
       </c>
       <c r="E6">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1478,13 +1580,25 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>8.1</v>
+      </c>
+      <c r="C7">
+        <v>-7</v>
+      </c>
+      <c r="D7">
+        <v>8.1</v>
+      </c>
+      <c r="E7">
+        <v>4.2</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
@@ -1492,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1500,16 +1614,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>-6.9</v>
       </c>
       <c r="C8">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>-8.35</v>
+        <v>-6.9</v>
       </c>
       <c r="E8">
-        <v>2.7</v>
+        <v>-4.2</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1518,33 +1632,21 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>2.15</v>
-      </c>
-      <c r="D9">
-        <v>-5.25</v>
-      </c>
-      <c r="E9">
-        <v>2.15</v>
-      </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1555,13 +1657,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="D10">
-        <v>-3.65</v>
+        <v>-8.35</v>
       </c>
       <c r="E10">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1570,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1578,16 +1680,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>-7</v>
+        <v>2.15</v>
       </c>
       <c r="D11">
-        <v>5.7</v>
+        <v>-5.25</v>
       </c>
       <c r="E11">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1596,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1607,13 +1709,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1.5</v>
+        <v>2.65</v>
       </c>
       <c r="D12">
-        <v>-3.6</v>
+        <v>-3.65</v>
       </c>
       <c r="E12">
-        <v>1.5</v>
+        <v>2.65</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1639,7 +1741,7 @@
         <v>5.7</v>
       </c>
       <c r="E13">
-        <v>1.5</v>
+        <v>2.65</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1648,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1659,13 +1761,13 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>-2.6</v>
+        <v>1.5</v>
       </c>
       <c r="D14">
-        <v>-3.45</v>
+        <v>-3.6</v>
       </c>
       <c r="E14">
-        <v>-2.6</v>
+        <v>1.5</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1674,13 +1776,25 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>5.7</v>
+      </c>
+      <c r="C15">
+        <v>-7</v>
+      </c>
+      <c r="D15">
+        <v>5.7</v>
+      </c>
+      <c r="E15">
+        <v>1.5</v>
+      </c>
       <c r="F15">
         <v>2</v>
       </c>
@@ -1688,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1699,13 +1813,13 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="D16">
-        <v>-3.7</v>
+        <v>-3.45</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1721,25 +1835,59 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-3.7</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19">
         <v>3.55</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>7</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>3.55</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>-0.5</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>11</v>
       </c>
     </row>

--- a/RapZapSnap/Assets/Chew/script/Excel Related/NotesData2.xlsx
+++ b/RapZapSnap/Assets/Chew/script/Excel Related/NotesData2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-45" windowWidth="12630" windowHeight="5445" activeTab="2"/>
+    <workbookView xWindow="-60" yWindow="-45" windowWidth="12630" windowHeight="5445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Phrase1" sheetId="1" r:id="rId1"/>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1358,6 +1358,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18">
         <v>11</v>
       </c>
@@ -1381,6 +1384,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19">
         <v>-11</v>
       </c>
@@ -1418,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1846,6 +1852,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18">
         <v>11</v>
       </c>
@@ -1869,6 +1878,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19">
         <v>3.55</v>
       </c>
